--- a/ig/sd-add-ext-intervention/ValueSet-eclaire-category-vs.xlsx
+++ b/ig/sd-add-ext-intervention/ValueSet-eclaire-category-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:46:08+00:00</t>
+    <t>2024-02-15T17:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-intervention/ValueSet-eclaire-category-vs.xlsx
+++ b/ig/sd-add-ext-intervention/ValueSet-eclaire-category-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T17:22:07+00:00</t>
+    <t>2024-02-16T07:26:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
